--- a/fuentes/contenidos/grado10/guion09/SolicitudGrafica_CN_10_09_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion09/SolicitudGrafica_CN_10_09_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Desktop\Edición Planeta\CN_10_09_CO\CN_10_09_CO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado10\guion09\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,14 +17,14 @@
     <sheet name="Definición técnica de imagenes" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Solicitud gráfica'!$A$9:$P$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Solicitud gráfica'!$A$9:$P$92</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="182">
   <si>
     <t>Fecha:</t>
   </si>
@@ -520,30 +520,6 @@
     <t>Ilustración</t>
   </si>
   <si>
-    <t>IMG2</t>
-  </si>
-  <si>
-    <t>IMG3</t>
-  </si>
-  <si>
-    <t>IMG4</t>
-  </si>
-  <si>
-    <t>IMG5</t>
-  </si>
-  <si>
-    <t>IMG6</t>
-  </si>
-  <si>
-    <t>IMG7</t>
-  </si>
-  <si>
-    <t>IMG8</t>
-  </si>
-  <si>
-    <t>IMG9</t>
-  </si>
-  <si>
     <t>IMG10</t>
   </si>
   <si>
@@ -559,24 +535,6 @@
     <t>IMG14</t>
   </si>
   <si>
-    <t>IMG15</t>
-  </si>
-  <si>
-    <t>IMG16</t>
-  </si>
-  <si>
-    <t>IMG17</t>
-  </si>
-  <si>
-    <t>IMG18</t>
-  </si>
-  <si>
-    <t>IMG19</t>
-  </si>
-  <si>
-    <t>IMG20</t>
-  </si>
-  <si>
     <t>Horizontal</t>
   </si>
   <si>
@@ -586,27 +544,6 @@
     <t>Ver descripción y observación</t>
   </si>
   <si>
-    <t>IMG21</t>
-  </si>
-  <si>
-    <t>IMG22</t>
-  </si>
-  <si>
-    <t>IMG23</t>
-  </si>
-  <si>
-    <t>IMG24</t>
-  </si>
-  <si>
-    <t>IMG25</t>
-  </si>
-  <si>
-    <t>IMG26</t>
-  </si>
-  <si>
-    <t>IMG27</t>
-  </si>
-  <si>
     <t>La materia y la energía</t>
   </si>
   <si>
@@ -614,54 +551,6 @@
   </si>
   <si>
     <t>Código Shutterstock 207761548</t>
-  </si>
-  <si>
-    <t>Código Shutterstock 94396489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fotografía que se incluye en la tabla IMG02. No tiene pie de imagen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Código Shutterstock 204961306. Ver observaciones </t>
-  </si>
-  <si>
-    <t>Se solicita por favor Cambiar  solid, liquid y gas por sólido, líquido y gaseoso respectivamente. La ilustración hacer parte de IMG02 no tiene pie de imagen</t>
-  </si>
-  <si>
-    <t>Código Shutterstock 1809376</t>
-  </si>
-  <si>
-    <t>Código Shutterstock 174772847</t>
-  </si>
-  <si>
-    <t>Código Shutterstock 70049467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se solicita disponer la palabra "Plomo" debajo de la imagen. Se deja ilustración guía.Fotografía que se incluye en la tabla IMG02. No tiene pie de imagen </t>
-  </si>
-  <si>
-    <t>Código Shutterstock 171735803</t>
-  </si>
-  <si>
-    <t>Código Shutterstock 97607600</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/0B8KYPZlXH19OenBvdWVyZWkzdDg/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Código Shutterstock 95156056</t>
-  </si>
-  <si>
-    <t>Código Shutterstock 150550232</t>
-  </si>
-  <si>
-    <t>Código Shutterstock 27903946</t>
-  </si>
-  <si>
-    <t>Código Shutterstock 109152572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Código Shutterstock 133274645. Ver obsevaciones y descripciones </t>
   </si>
   <si>
     <t xml:space="preserve">Código Shutterstock 139537097. Ver obsevaciones y descripciones </t>
@@ -715,7 +604,28 @@
     <t>Se solicita realizar ilustración de esquema igual a la imagen guía. Los colores y formas a utilizar se dejan según criterio de la diseñadora de acuerdo a maqueta.</t>
   </si>
   <si>
-    <t>Se solicita realizar ilustración de tabla con letra Arial 12. La tabla guía se encuentra dirigiéndose al enlace que se relaciona. La tabla a ilustrar contiene fotografías e ilustraciones inmersas, las cuales se solicitan posteriormente IMG 03- IMG 14. Todas las fotografías e ilustraciones deben ser del mismo tamaño. La tabla debe tener el mínimo en márgenes .</t>
+    <t>IMG02</t>
+  </si>
+  <si>
+    <t>IMG03</t>
+  </si>
+  <si>
+    <t>IMG04</t>
+  </si>
+  <si>
+    <t>IMG05</t>
+  </si>
+  <si>
+    <t>IMG06</t>
+  </si>
+  <si>
+    <t>IMG07</t>
+  </si>
+  <si>
+    <t>IMG08</t>
+  </si>
+  <si>
+    <t>IMG09</t>
   </si>
 </sst>
 </file>
@@ -725,7 +635,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -770,12 +680,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
@@ -1361,7 +1265,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1413,9 +1317,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1458,9 +1361,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1473,17 +1373,14 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1501,7 +1398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1522,49 +1419,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1585,44 +1482,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="51" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1643,22 +1531,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1688,14 +1576,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="51">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1721,7 +1609,6 @@
     <cellStyle name="Hipervínculo" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="51" builtinId="8"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1831,622 +1718,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>3248024</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1343024</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Imagen 42" descr="http://thumb1.shutterstock.com/display_pic_with_logo/960055/207761548/stock-photo-a-closeup-view-of-a-bunch-of-shiny-straight-blonde-hair-in-a-wavy-curved-style-with-a-section-207761548.jpg"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14982824" y="2143124"/>
-          <a:ext cx="2924175" cy="1171575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2876550</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1895474</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Imagen 45" descr="young woman is tasting her cooking in the kitchen"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15001875" y="5467349"/>
-          <a:ext cx="2533650" cy="1819275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2962275</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1628775</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Imagen 48" descr="State of Matter. Solid, Liquid and Gas. Vector Illustration."/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14916150" y="7572375"/>
-          <a:ext cx="2705100" cy="1504950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2057400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1847850</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Imagen 51" descr="El agua que hierve en un excedente a del cubilete bunsen lahornilla."/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15259050" y="9363075"/>
-          <a:ext cx="1457325" cy="1838325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1884680</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1857375</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Imagen 56" descr="Butter melting in a hot pan with a wooden spoon"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15220950" y="11430000"/>
-          <a:ext cx="1322705" cy="1771650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2047875</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1714500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Imagen 57" descr="Oil in water on white"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15106650" y="13401675"/>
-          <a:ext cx="1600200" cy="1638300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>638174</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2467609</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>1509395</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Imagen 29"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:srcRect l="66724" t="36062" r="7543" b="27105"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15297149" y="15211425"/>
-          <a:ext cx="1829435" cy="1461770"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1219200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2600325</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>1463675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Imagen 31" descr="Elastic band on hands, isolated on white"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15878175" y="18602325"/>
-          <a:ext cx="1381125" cy="1397000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2438399</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>2171699</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Imagen 33" descr="Copper wire rolled up on a spool"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15068549" y="20412074"/>
-          <a:ext cx="2028825" cy="1990725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2242185</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1487170</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Imagen 34" descr="http://thumb101.shutterstock.com/display_pic_with_logo/554422/554422,1329241934,3/stock-photo-round-old-european-cut-diamond-isolated-on-white-background-95156056.jpg"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15363825" y="17040225"/>
-          <a:ext cx="1537335" cy="1296670"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2393950</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>1644650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Imagen 35" descr="http://thumb9.shutterstock.com/display_pic_with_logo/786253/150550232/stock-photo-woman-holding-a-roll-of-aluminum-foil-150550232.jpg"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14986000" y="23550033"/>
-          <a:ext cx="2076450" cy="1504950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1914525</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>2228850</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Imagen 37" descr="Hammer and anvil for crushing your item of choice"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14925675" y="26069925"/>
-          <a:ext cx="1647825" cy="2095500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>402167</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>84666</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2878667</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>1767415</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Imagen 38" descr="Broken Bowl on White Background"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15070667" y="28141083"/>
-          <a:ext cx="2476500" cy="1682749"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3058583</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>2264833</xdr:rowOff>
+      <xdr:colOff>3915833</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2487083</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2454,13 +1734,13 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:srcRect l="21894" t="23244" r="26171" b="13363"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14668500" y="30088417"/>
+          <a:off x="15509875" y="3873500"/>
           <a:ext cx="3058583" cy="2264833"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2482,13 +1762,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>130968</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>5072061</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>3333750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2497,7 +1777,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:srcRect l="25454" t="28901" r="40184" b="27358"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -2527,13 +1807,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
-          <xdr:row>25</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
           <xdr:colOff>4438650</xdr:colOff>
-          <xdr:row>25</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>3095625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2576,13 +1856,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>392906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>4107656</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2226467</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2591,7 +1871,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2623,13 +1903,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>642937</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3500437</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>2127250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2638,7 +1918,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2670,13 +1950,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1619250</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>214313</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3585845</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>2948623</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2685,7 +1965,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2717,13 +1997,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>297656</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>35719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3745706</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>2640489</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2732,7 +2012,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2764,13 +2044,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>54428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>4819650</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>4374333</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2779,7 +2059,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2811,13 +2091,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>108856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>4463143</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>2381249</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2826,7 +2106,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:srcRect l="27617" t="16049" r="27459" b="33187"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -2854,13 +2134,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>272142</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>54428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3047999</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>2109107</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2869,7 +2149,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2901,13 +2181,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>639536</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3029041</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>1890395</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2916,7 +2196,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2948,13 +2228,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>816429</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3966664</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>2336165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2963,7 +2243,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2995,13 +2275,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>394606</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>40822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>4830535</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>3850822</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3010,7 +2290,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3026,6 +2306,53 @@
         <a:xfrm>
           <a:off x="15047231" y="21456197"/>
           <a:ext cx="4435929" cy="3810000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>777875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>79374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3413125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1612899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Imagen 27" descr="http://thumb1.shutterstock.com/display_pic_with_logo/960055/207761548/stock-photo-a-closeup-view-of-a-bunch-of-shiny-straight-blonde-hair-in-a-wavy-curved-style-with-a-section-207761548.jpg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15430500" y="2047874"/>
+          <a:ext cx="2635250" cy="1533525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3754,11 +3081,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P105"/>
+  <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3786,8 +3113,8 @@
       <c r="D1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
@@ -3796,16 +3123,16 @@
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="F2" s="74" t="s">
+      <c r="D2" s="77"/>
+      <c r="F2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="75"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -3813,14 +3140,14 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="83">
+      <c r="C3" s="78">
         <v>10</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
+      <c r="D3" s="79"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
       <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
@@ -3828,19 +3155,19 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="83" t="s">
-        <v>178</v>
-      </c>
-      <c r="D4" s="84"/>
+      <c r="C4" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="79"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
@@ -3849,18 +3176,18 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="80" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="86"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="42" t="str">
+      <c r="F5" s="40" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
         <v/>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="66"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="64"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
@@ -3872,20 +3199,20 @@
       <c r="E6" s="7"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="27" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D7" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="1"/>
@@ -3901,12 +3228,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="78" t="s">
+      <c r="F8" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="80"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="75"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -3916,37 +3243,37 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="65" t="s">
+      <c r="F9" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="65" t="s">
+      <c r="G9" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="65" t="s">
+      <c r="H9" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="65" t="s">
+      <c r="I9" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="22" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3955,17 +3282,17 @@
         <v>147</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="C10" s="24" t="str">
+        <v>159</v>
+      </c>
+      <c r="C10" s="23" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="F10" s="14" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
@@ -3986,62 +3313,64 @@
       <c r="J10" s="14"/>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="12" customFormat="1" ht="227.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="24" t="str">
-        <f t="shared" ref="C11:C71" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>160</v>
+      </c>
+      <c r="C11" s="23" t="str">
+        <f t="shared" ref="C11:C58" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="E11" s="14"/>
+      <c r="E11" s="14" t="s">
+        <v>154</v>
+      </c>
       <c r="F11" s="14" t="str">
-        <f t="shared" ref="F11:F71" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_10_09_CO_IMG2_small</v>
+        <f t="shared" ref="F11:F58" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>CN_10_09_CO_IMG02_small</v>
       </c>
       <c r="G11" s="14" t="str">
         <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
       <c r="H11" s="14" t="str">
-        <f t="shared" ref="H11:H71" si="2">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CN_10_09_CO_IMG2_zoom</v>
+        <f t="shared" ref="H11:H58" si="2">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v>CN_10_09_CO_IMG02_zoom</v>
       </c>
       <c r="I11" s="14" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J11" s="72" t="s">
-        <v>191</v>
-      </c>
+      <c r="J11" s="14"/>
       <c r="K11" s="15" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" ht="162" customHeight="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="12" customFormat="1" ht="285.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="C12" s="24" t="str">
+        <v>156</v>
+      </c>
+      <c r="C12" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E12" s="14"/>
+        <v>148</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>154</v>
+      </c>
       <c r="F12" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_10_09_CO_IMG3_small</v>
+        <v>CN_10_09_CO_IMG03_small</v>
       </c>
       <c r="G12" s="14" t="str">
         <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -4049,35 +3378,37 @@
       </c>
       <c r="H12" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_10_09_CO_IMG3_zoom</v>
+        <v>CN_10_09_CO_IMG03_zoom</v>
       </c>
       <c r="I12" s="14" t="str">
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="73" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="67"/>
+      <c r="K12" s="68" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="12" customFormat="1" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C13" s="24" t="str">
+        <v>156</v>
+      </c>
+      <c r="C13" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="E13" s="14"/>
+      <c r="E13" s="14" t="s">
+        <v>154</v>
+      </c>
       <c r="F13" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_10_09_CO_IMG4_small</v>
+        <v>CN_10_09_CO_IMG04_small</v>
       </c>
       <c r="G13" s="14" t="str">
         <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -4085,35 +3416,37 @@
       </c>
       <c r="H13" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_10_09_CO_IMG4_zoom</v>
+        <v>CN_10_09_CO_IMG04_zoom</v>
       </c>
       <c r="I13" s="14" t="str">
         <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13"/>
+      <c r="K13" s="68" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C14" s="24" t="str">
+        <v>164</v>
+      </c>
+      <c r="C14" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E14" s="14"/>
+        <v>155</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>154</v>
+      </c>
       <c r="F14" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_10_09_CO_IMG5_small</v>
+        <v>CN_10_09_CO_IMG05_small</v>
       </c>
       <c r="G14" s="14" t="str">
         <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -4121,35 +3454,35 @@
       </c>
       <c r="H14" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_10_09_CO_IMG5_zoom</v>
+        <v>CN_10_09_CO_IMG05_zoom</v>
       </c>
       <c r="I14" s="14" t="str">
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J14" s="19"/>
-      <c r="K14" s="73" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="192.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="C15" s="24" t="str">
+        <v>165</v>
+      </c>
+      <c r="C15" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E15" s="14"/>
+        <v>155</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>154</v>
+      </c>
       <c r="F15" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_10_09_CO_IMG6_small</v>
+        <v>CN_10_09_CO_IMG06_small</v>
       </c>
       <c r="G15" s="14" t="str">
         <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -4157,35 +3490,35 @@
       </c>
       <c r="H15" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_10_09_CO_IMG6_zoom</v>
+        <v>CN_10_09_CO_IMG06_zoom</v>
       </c>
       <c r="I15" s="14" t="str">
         <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="73" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+    </row>
+    <row r="16" spans="1:16" s="12" customFormat="1" ht="249.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C16" s="24" t="str">
+        <v>166</v>
+      </c>
+      <c r="C16" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E16" s="14"/>
+        <v>155</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>154</v>
+      </c>
       <c r="F16" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_10_09_CO_IMG7_small</v>
+        <v>CN_10_09_CO_IMG07_small</v>
       </c>
       <c r="G16" s="14" t="str">
         <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -4193,35 +3526,35 @@
       </c>
       <c r="H16" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_10_09_CO_IMG7_zoom</v>
+        <v>CN_10_09_CO_IMG07_zoom</v>
       </c>
       <c r="I16" s="14" t="str">
         <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="73" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+    </row>
+    <row r="17" spans="1:11" s="12" customFormat="1" ht="239.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="C17" s="24" t="str">
+        <v>167</v>
+      </c>
+      <c r="C17" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="E17" s="14"/>
+        <v>155</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>154</v>
+      </c>
       <c r="F17" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_10_09_CO_IMG8_small</v>
+        <v>CN_10_09_CO_IMG08_small</v>
       </c>
       <c r="G17" s="14" t="str">
         <f>IF(F17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -4229,35 +3562,35 @@
       </c>
       <c r="H17" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_10_09_CO_IMG8_zoom</v>
+        <v>CN_10_09_CO_IMG08_zoom</v>
       </c>
       <c r="I17" s="14" t="str">
         <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17"/>
+      <c r="K17" s="19"/>
+    </row>
+    <row r="18" spans="1:11" s="12" customFormat="1" ht="348.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="C18" s="24" t="str">
+      <c r="C18" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E18" s="14"/>
+        <v>148</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>154</v>
+      </c>
       <c r="F18" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_10_09_CO_IMG9_small</v>
+        <v>CN_10_09_CO_IMG09_small</v>
       </c>
       <c r="G18" s="14" t="str">
         <f>IF(F18&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -4265,32 +3598,34 @@
       </c>
       <c r="H18" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_10_09_CO_IMG9_zoom</v>
+        <v>CN_10_09_CO_IMG09_zoom</v>
       </c>
       <c r="I18" s="14" t="str">
         <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J18" s="20"/>
-      <c r="K18" s="25" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="19"/>
+      <c r="K18" s="68" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="12" customFormat="1" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="C19" s="24" t="str">
+        <v>168</v>
+      </c>
+      <c r="C19" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E19" s="14"/>
+        <v>155</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>154</v>
+      </c>
       <c r="F19" s="14" t="str">
         <f t="shared" si="1"/>
         <v>CN_10_09_CO_IMG10_small</v>
@@ -4307,26 +3642,26 @@
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" ht="249.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="19"/>
+      <c r="K19" s="68"/>
+    </row>
+    <row r="20" spans="1:11" s="12" customFormat="1" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="C20" s="24" t="str">
+        <v>169</v>
+      </c>
+      <c r="C20" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E20" s="14"/>
+        <v>155</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>154</v>
+      </c>
       <c r="F20" s="14" t="str">
         <f t="shared" si="1"/>
         <v>CN_10_09_CO_IMG11_small</v>
@@ -4343,26 +3678,26 @@
         <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J20"/>
-      <c r="K20" s="25" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="19"/>
+      <c r="K20" s="68"/>
+    </row>
+    <row r="21" spans="1:11" s="12" customFormat="1" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C21" s="24" t="str">
+        <v>170</v>
+      </c>
+      <c r="C21" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E21" s="14"/>
+        <v>155</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>154</v>
+      </c>
       <c r="F21" s="14" t="str">
         <f t="shared" si="1"/>
         <v>CN_10_09_CO_IMG12_small</v>
@@ -4379,26 +3714,26 @@
         <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J21" s="20"/>
-      <c r="K21" s="69" t="s">
-        <v>182</v>
-      </c>
+      <c r="J21"/>
+      <c r="K21" s="19"/>
     </row>
     <row r="22" spans="1:11" s="12" customFormat="1" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="C22" s="24" t="str">
+        <v>171</v>
+      </c>
+      <c r="C22" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E22" s="14"/>
+        <v>155</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>154</v>
+      </c>
       <c r="F22" s="14" t="str">
         <f t="shared" si="1"/>
         <v>CN_10_09_CO_IMG13_small</v>
@@ -4415,26 +3750,26 @@
         <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J22" s="70"/>
-      <c r="K22" s="69" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="14"/>
+      <c r="K22" s="68"/>
+    </row>
+    <row r="23" spans="1:11" s="12" customFormat="1" ht="326.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="C23" s="24" t="str">
+        <v>156</v>
+      </c>
+      <c r="C23" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E23" s="14"/>
+        <v>148</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>154</v>
+      </c>
       <c r="F23" s="14" t="str">
         <f t="shared" si="1"/>
         <v>CN_10_09_CO_IMG14_small</v>
@@ -4452,495 +3787,420 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J23"/>
-      <c r="K23" s="69" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" ht="227.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="C24" s="24" t="str">
+      <c r="K23" s="68" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="str">
+        <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),CONCATENATE(LEFT(#REF!,3),IF(MID(#REF!,4,2)+1&lt;10,CONCATENATE("0",MID(#REF!,4,2)+1),MID(#REF!,4,2)+1)),"")</f>
+        <v/>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>168</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
       <c r="F24" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_10_09_CO_IMG15_small</v>
+        <v/>
       </c>
       <c r="G24" s="14" t="str">
         <f>IF(F24&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H24" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_10_09_CO_IMG15_zoom</v>
+        <v/>
       </c>
       <c r="I24" s="14" t="str">
         <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
+        <v/>
       </c>
       <c r="J24" s="14"/>
-      <c r="K24" s="15" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" ht="285.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C25" s="24" t="str">
+      <c r="K24" s="15"/>
+    </row>
+    <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="str">
+        <f t="shared" ref="A25:A67" si="3">IF(OR(B25&lt;&gt;"",J25&lt;&gt;""),CONCATENATE(LEFT(A24,3),IF(MID(A24,4,2)+1&lt;10,CONCATENATE("0",MID(A24,4,2)+1),MID(A24,4,2)+1)),"")</f>
+        <v/>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>168</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
       <c r="F25" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_10_09_CO_IMG16_small</v>
+        <v/>
       </c>
       <c r="G25" s="14" t="str">
         <f>IF(F25&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H25" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_10_09_CO_IMG16_zoom</v>
+        <v/>
       </c>
       <c r="I25" s="14" t="str">
         <f>IF(OR(B25&lt;&gt;"",J25&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J25" s="70"/>
-      <c r="K25" s="71" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C26" s="24" t="str">
+        <v/>
+      </c>
+      <c r="J25" s="14"/>
+      <c r="K25" s="15"/>
+    </row>
+    <row r="26" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>168</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_10_09_CO_IMG17_small</v>
+        <v/>
       </c>
       <c r="G26" s="14" t="str">
         <f>IF(F26&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H26" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_10_09_CO_IMG17_zoom</v>
+        <v/>
       </c>
       <c r="I26" s="14" t="str">
         <f>IF(OR(B26&lt;&gt;"",J26&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J26"/>
-      <c r="K26" s="71" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="12" customFormat="1" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C27" s="24" t="str">
+        <v/>
+      </c>
+      <c r="J26" s="14"/>
+      <c r="K26" s="15"/>
+    </row>
+    <row r="27" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>168</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
       <c r="F27" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_10_09_CO_IMG18_small</v>
+        <v/>
       </c>
       <c r="G27" s="14" t="str">
         <f>IF(F27&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H27" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_10_09_CO_IMG18_zoom</v>
+        <v/>
       </c>
       <c r="I27" s="14" t="str">
         <f>IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-    </row>
-    <row r="28" spans="1:11" s="12" customFormat="1" ht="192.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C28" s="24" t="str">
+        <v/>
+      </c>
+      <c r="J27" s="14"/>
+      <c r="K27" s="15"/>
+    </row>
+    <row r="28" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>168</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
       <c r="F28" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_10_09_CO_IMG19_small</v>
+        <v/>
       </c>
       <c r="G28" s="14" t="str">
         <f>IF(F28&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H28" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_10_09_CO_IMG19_zoom</v>
+        <v/>
       </c>
       <c r="I28" s="14" t="str">
         <f>IF(OR(B28&lt;&gt;"",J28&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-    </row>
-    <row r="29" spans="1:11" s="12" customFormat="1" ht="249.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C29" s="24" t="str">
+        <v/>
+      </c>
+      <c r="J28" s="14"/>
+      <c r="K28" s="15"/>
+    </row>
+    <row r="29" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>168</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
       <c r="F29" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_10_09_CO_IMG20_small</v>
+        <v/>
       </c>
       <c r="G29" s="14" t="str">
         <f>IF(F29&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H29" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_10_09_CO_IMG20_zoom</v>
+        <v/>
       </c>
       <c r="I29" s="14" t="str">
         <f>IF(OR(B29&lt;&gt;"",J29&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-    </row>
-    <row r="30" spans="1:11" s="12" customFormat="1" ht="239.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="C30" s="24" t="str">
+        <v/>
+      </c>
+      <c r="J29" s="14"/>
+      <c r="K29" s="15"/>
+    </row>
+    <row r="30" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>168</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
       <c r="F30" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_10_09_CO_IMG21_small</v>
+        <v/>
       </c>
       <c r="G30" s="14" t="str">
         <f>IF(F30&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H30" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_10_09_CO_IMG21_zoom</v>
+        <v/>
       </c>
       <c r="I30" s="14" t="str">
         <f>IF(OR(B30&lt;&gt;"",J30&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J30"/>
-      <c r="K30" s="19"/>
-    </row>
-    <row r="31" spans="1:11" s="12" customFormat="1" ht="348.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C31" s="24" t="str">
+        <v/>
+      </c>
+      <c r="J30" s="14"/>
+      <c r="K30" s="15"/>
+    </row>
+    <row r="31" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>168</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
       <c r="F31" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_10_09_CO_IMG22_small</v>
+        <v/>
       </c>
       <c r="G31" s="14" t="str">
         <f>IF(F31&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H31" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_10_09_CO_IMG22_zoom</v>
+        <v/>
       </c>
       <c r="I31" s="14" t="str">
         <f>IF(OR(B31&lt;&gt;"",J31&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J31" s="19"/>
-      <c r="K31" s="71" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="12" customFormat="1" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="C32" s="24" t="str">
+        <v/>
+      </c>
+      <c r="J31" s="14"/>
+      <c r="K31" s="15"/>
+    </row>
+    <row r="32" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>168</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
       <c r="F32" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_10_09_CO_IMG23_small</v>
+        <v/>
       </c>
       <c r="G32" s="14" t="str">
         <f>IF(F32&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H32" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_10_09_CO_IMG23_zoom</v>
+        <v/>
       </c>
       <c r="I32" s="14" t="str">
         <f>IF(OR(B32&lt;&gt;"",J32&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J32" s="19"/>
-      <c r="K32" s="71"/>
-    </row>
-    <row r="33" spans="1:11" s="12" customFormat="1" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C33" s="24" t="str">
+        <v/>
+      </c>
+      <c r="J32" s="14"/>
+      <c r="K32" s="15"/>
+    </row>
+    <row r="33" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>168</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
       <c r="F33" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_10_09_CO_IMG24_small</v>
+        <v/>
       </c>
       <c r="G33" s="14" t="str">
         <f>IF(F33&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H33" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_10_09_CO_IMG24_zoom</v>
+        <v/>
       </c>
       <c r="I33" s="14" t="str">
         <f>IF(OR(B33&lt;&gt;"",J33&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J33" s="19"/>
-      <c r="K33" s="71"/>
-    </row>
-    <row r="34" spans="1:11" s="12" customFormat="1" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C34" s="24" t="str">
+        <v/>
+      </c>
+      <c r="J33" s="14"/>
+      <c r="K33" s="15"/>
+    </row>
+    <row r="34" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>168</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
       <c r="F34" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_10_09_CO_IMG25_small</v>
+        <v/>
       </c>
       <c r="G34" s="14" t="str">
         <f>IF(F34&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H34" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_10_09_CO_IMG25_zoom</v>
+        <v/>
       </c>
       <c r="I34" s="14" t="str">
         <f>IF(OR(B34&lt;&gt;"",J34&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J34"/>
-      <c r="K34" s="19"/>
-    </row>
-    <row r="35" spans="1:11" s="12" customFormat="1" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="C35" s="24" t="str">
+        <v/>
+      </c>
+      <c r="J34" s="14"/>
+      <c r="K34" s="15"/>
+    </row>
+    <row r="35" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>168</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
       <c r="F35" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_10_09_CO_IMG26_small</v>
+        <v/>
       </c>
       <c r="G35" s="14" t="str">
         <f>IF(F35&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H35" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_10_09_CO_IMG26_zoom</v>
+        <v/>
       </c>
       <c r="I35" s="14" t="str">
         <f>IF(OR(B35&lt;&gt;"",J35&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
+        <v/>
       </c>
       <c r="J35" s="14"/>
-      <c r="K35" s="71"/>
-    </row>
-    <row r="36" spans="1:11" s="12" customFormat="1" ht="326.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C36" s="24" t="str">
+      <c r="K35" s="15"/>
+    </row>
+    <row r="36" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>168</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
       <c r="F36" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_10_09_CO_IMG27_small</v>
+        <v/>
       </c>
       <c r="G36" s="14" t="str">
         <f>IF(F36&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H36" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_10_09_CO_IMG27_zoom</v>
+        <v/>
       </c>
       <c r="I36" s="14" t="str">
         <f>IF(OR(B36&lt;&gt;"",J36&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J36"/>
-      <c r="K36" s="71" t="s">
-        <v>209</v>
-      </c>
+        <v/>
+      </c>
+      <c r="J36" s="14"/>
+      <c r="K36" s="15"/>
     </row>
     <row r="37" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="str">
-        <f>IF(OR(B37&lt;&gt;"",J37&lt;&gt;""),CONCATENATE(LEFT(#REF!,3),IF(MID(#REF!,4,2)+1&lt;10,CONCATENATE("0",MID(#REF!,4,2)+1),MID(#REF!,4,2)+1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B37" s="13"/>
-      <c r="C37" s="24" t="str">
+      <c r="C37" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4967,11 +4227,11 @@
     </row>
     <row r="38" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="str">
-        <f t="shared" ref="A38:A80" si="3">IF(OR(B38&lt;&gt;"",J38&lt;&gt;""),CONCATENATE(LEFT(A37,3),IF(MID(A37,4,2)+1&lt;10,CONCATENATE("0",MID(A37,4,2)+1),MID(A37,4,2)+1)),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B38" s="13"/>
-      <c r="C38" s="24" t="str">
+      <c r="C38" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5002,7 +4262,7 @@
         <v/>
       </c>
       <c r="B39" s="13"/>
-      <c r="C39" s="24" t="str">
+      <c r="C39" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5033,7 +4293,7 @@
         <v/>
       </c>
       <c r="B40" s="13"/>
-      <c r="C40" s="24" t="str">
+      <c r="C40" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5064,7 +4324,7 @@
         <v/>
       </c>
       <c r="B41" s="13"/>
-      <c r="C41" s="24" t="str">
+      <c r="C41" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5095,7 +4355,7 @@
         <v/>
       </c>
       <c r="B42" s="13"/>
-      <c r="C42" s="24" t="str">
+      <c r="C42" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5126,7 +4386,7 @@
         <v/>
       </c>
       <c r="B43" s="13"/>
-      <c r="C43" s="24" t="str">
+      <c r="C43" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5157,7 +4417,7 @@
         <v/>
       </c>
       <c r="B44" s="13"/>
-      <c r="C44" s="24" t="str">
+      <c r="C44" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5188,7 +4448,7 @@
         <v/>
       </c>
       <c r="B45" s="13"/>
-      <c r="C45" s="24" t="str">
+      <c r="C45" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5219,7 +4479,7 @@
         <v/>
       </c>
       <c r="B46" s="13"/>
-      <c r="C46" s="24" t="str">
+      <c r="C46" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5250,7 +4510,7 @@
         <v/>
       </c>
       <c r="B47" s="13"/>
-      <c r="C47" s="24" t="str">
+      <c r="C47" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5281,7 +4541,7 @@
         <v/>
       </c>
       <c r="B48" s="13"/>
-      <c r="C48" s="24" t="str">
+      <c r="C48" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5312,7 +4572,7 @@
         <v/>
       </c>
       <c r="B49" s="13"/>
-      <c r="C49" s="24" t="str">
+      <c r="C49" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5343,7 +4603,7 @@
         <v/>
       </c>
       <c r="B50" s="13"/>
-      <c r="C50" s="24" t="str">
+      <c r="C50" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5374,7 +4634,7 @@
         <v/>
       </c>
       <c r="B51" s="13"/>
-      <c r="C51" s="24" t="str">
+      <c r="C51" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5405,7 +4665,7 @@
         <v/>
       </c>
       <c r="B52" s="13"/>
-      <c r="C52" s="24" t="str">
+      <c r="C52" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5436,7 +4696,7 @@
         <v/>
       </c>
       <c r="B53" s="13"/>
-      <c r="C53" s="24" t="str">
+      <c r="C53" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5467,7 +4727,7 @@
         <v/>
       </c>
       <c r="B54" s="13"/>
-      <c r="C54" s="24" t="str">
+      <c r="C54" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5498,7 +4758,7 @@
         <v/>
       </c>
       <c r="B55" s="13"/>
-      <c r="C55" s="24" t="str">
+      <c r="C55" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5529,7 +4789,7 @@
         <v/>
       </c>
       <c r="B56" s="13"/>
-      <c r="C56" s="24" t="str">
+      <c r="C56" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5560,7 +4820,7 @@
         <v/>
       </c>
       <c r="B57" s="13"/>
-      <c r="C57" s="24" t="str">
+      <c r="C57" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5591,7 +4851,7 @@
         <v/>
       </c>
       <c r="B58" s="13"/>
-      <c r="C58" s="24" t="str">
+      <c r="C58" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5622,14 +4882,14 @@
         <v/>
       </c>
       <c r="B59" s="13"/>
-      <c r="C59" s="24" t="str">
-        <f t="shared" si="0"/>
+      <c r="C59" s="23" t="str">
+        <f t="shared" ref="C59:C92" si="4">IF(OR(B59&lt;&gt;"",J59&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v/>
       </c>
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
       <c r="F59" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F59:F92" si="5">IF(OR(B59&lt;&gt;"",J59&lt;&gt;""),CONCATENATE($C$7,"_",$A59,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I59="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v/>
       </c>
       <c r="G59" s="14" t="str">
@@ -5637,7 +4897,7 @@
         <v/>
       </c>
       <c r="H59" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H59:H92" si="6">IF(AND(I59&lt;&gt;"",I59&lt;&gt;0),IF(OR(B59&lt;&gt;"",J59&lt;&gt;""),CONCATENATE($C$7,"_",$A59,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
       <c r="I59" s="14" t="str">
@@ -5653,14 +4913,14 @@
         <v/>
       </c>
       <c r="B60" s="13"/>
-      <c r="C60" s="24" t="str">
-        <f t="shared" si="0"/>
+      <c r="C60" s="23" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
       <c r="F60" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G60" s="14" t="str">
@@ -5668,7 +4928,7 @@
         <v/>
       </c>
       <c r="H60" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I60" s="14" t="str">
@@ -5684,14 +4944,14 @@
         <v/>
       </c>
       <c r="B61" s="13"/>
-      <c r="C61" s="24" t="str">
-        <f t="shared" si="0"/>
+      <c r="C61" s="23" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
       <c r="F61" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G61" s="14" t="str">
@@ -5699,7 +4959,7 @@
         <v/>
       </c>
       <c r="H61" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I61" s="14" t="str">
@@ -5715,14 +4975,14 @@
         <v/>
       </c>
       <c r="B62" s="13"/>
-      <c r="C62" s="24" t="str">
-        <f t="shared" si="0"/>
+      <c r="C62" s="23" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
       <c r="F62" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G62" s="14" t="str">
@@ -5730,7 +4990,7 @@
         <v/>
       </c>
       <c r="H62" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I62" s="14" t="str">
@@ -5746,14 +5006,14 @@
         <v/>
       </c>
       <c r="B63" s="13"/>
-      <c r="C63" s="24" t="str">
-        <f t="shared" si="0"/>
+      <c r="C63" s="23" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
       <c r="F63" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G63" s="14" t="str">
@@ -5761,7 +5021,7 @@
         <v/>
       </c>
       <c r="H63" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I63" s="14" t="str">
@@ -5777,14 +5037,14 @@
         <v/>
       </c>
       <c r="B64" s="13"/>
-      <c r="C64" s="24" t="str">
-        <f t="shared" si="0"/>
+      <c r="C64" s="23" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
       <c r="F64" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G64" s="14" t="str">
@@ -5792,7 +5052,7 @@
         <v/>
       </c>
       <c r="H64" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I64" s="14" t="str">
@@ -5808,14 +5068,14 @@
         <v/>
       </c>
       <c r="B65" s="13"/>
-      <c r="C65" s="24" t="str">
-        <f t="shared" si="0"/>
+      <c r="C65" s="23" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
       <c r="F65" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G65" s="14" t="str">
@@ -5823,7 +5083,7 @@
         <v/>
       </c>
       <c r="H65" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I65" s="14" t="str">
@@ -5839,14 +5099,14 @@
         <v/>
       </c>
       <c r="B66" s="13"/>
-      <c r="C66" s="24" t="str">
-        <f t="shared" si="0"/>
+      <c r="C66" s="23" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D66" s="14"/>
       <c r="E66" s="14"/>
       <c r="F66" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G66" s="14" t="str">
@@ -5854,7 +5114,7 @@
         <v/>
       </c>
       <c r="H66" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I66" s="14" t="str">
@@ -5870,14 +5130,14 @@
         <v/>
       </c>
       <c r="B67" s="13"/>
-      <c r="C67" s="24" t="str">
-        <f t="shared" si="0"/>
+      <c r="C67" s="23" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
       <c r="F67" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G67" s="14" t="str">
@@ -5885,7 +5145,7 @@
         <v/>
       </c>
       <c r="H67" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I67" s="14" t="str">
@@ -5897,18 +5157,18 @@
     </row>
     <row r="68" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A68:A92" si="7">IF(OR(B68&lt;&gt;"",J68&lt;&gt;""),CONCATENATE(LEFT(A67,3),IF(MID(A67,4,2)+1&lt;10,CONCATENATE("0",MID(A67,4,2)+1),MID(A67,4,2)+1)),"")</f>
         <v/>
       </c>
       <c r="B68" s="13"/>
-      <c r="C68" s="24" t="str">
-        <f t="shared" si="0"/>
+      <c r="C68" s="23" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
       <c r="F68" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G68" s="14" t="str">
@@ -5916,7 +5176,7 @@
         <v/>
       </c>
       <c r="H68" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I68" s="14" t="str">
@@ -5928,18 +5188,18 @@
     </row>
     <row r="69" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B69" s="13"/>
-      <c r="C69" s="24" t="str">
-        <f t="shared" si="0"/>
+      <c r="C69" s="23" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
       <c r="F69" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G69" s="14" t="str">
@@ -5947,7 +5207,7 @@
         <v/>
       </c>
       <c r="H69" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I69" s="14" t="str">
@@ -5959,18 +5219,18 @@
     </row>
     <row r="70" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B70" s="13"/>
-      <c r="C70" s="24" t="str">
-        <f t="shared" si="0"/>
+      <c r="C70" s="23" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
       <c r="F70" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G70" s="14" t="str">
@@ -5978,7 +5238,7 @@
         <v/>
       </c>
       <c r="H70" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I70" s="14" t="str">
@@ -5990,18 +5250,18 @@
     </row>
     <row r="71" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B71" s="13"/>
-      <c r="C71" s="24" t="str">
-        <f t="shared" si="0"/>
+      <c r="C71" s="23" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
       <c r="F71" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G71" s="14" t="str">
@@ -6009,7 +5269,7 @@
         <v/>
       </c>
       <c r="H71" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I71" s="14" t="str">
@@ -6021,18 +5281,18 @@
     </row>
     <row r="72" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B72" s="13"/>
-      <c r="C72" s="24" t="str">
-        <f t="shared" ref="C72:C105" si="4">IF(OR(B72&lt;&gt;"",J72&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+      <c r="C72" s="23" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D72" s="14"/>
       <c r="E72" s="14"/>
       <c r="F72" s="14" t="str">
-        <f t="shared" ref="F72:F105" si="5">IF(OR(B72&lt;&gt;"",J72&lt;&gt;""),CONCATENATE($C$7,"_",$A72,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I72="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G72" s="14" t="str">
@@ -6040,7 +5300,7 @@
         <v/>
       </c>
       <c r="H72" s="14" t="str">
-        <f t="shared" ref="H72:H105" si="6">IF(AND(I72&lt;&gt;"",I72&lt;&gt;0),IF(OR(B72&lt;&gt;"",J72&lt;&gt;""),CONCATENATE($C$7,"_",$A72,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I72" s="14" t="str">
@@ -6052,11 +5312,11 @@
     </row>
     <row r="73" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B73" s="13"/>
-      <c r="C73" s="24" t="str">
+      <c r="C73" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6083,11 +5343,11 @@
     </row>
     <row r="74" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B74" s="13"/>
-      <c r="C74" s="24" t="str">
+      <c r="C74" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6114,11 +5374,11 @@
     </row>
     <row r="75" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B75" s="13"/>
-      <c r="C75" s="24" t="str">
+      <c r="C75" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6145,11 +5405,11 @@
     </row>
     <row r="76" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B76" s="13"/>
-      <c r="C76" s="24" t="str">
+      <c r="C76" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6176,11 +5436,11 @@
     </row>
     <row r="77" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B77" s="13"/>
-      <c r="C77" s="24" t="str">
+      <c r="C77" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6207,11 +5467,11 @@
     </row>
     <row r="78" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B78" s="13"/>
-      <c r="C78" s="24" t="str">
+      <c r="C78" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6238,11 +5498,11 @@
     </row>
     <row r="79" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B79" s="13"/>
-      <c r="C79" s="24" t="str">
+      <c r="C79" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6269,11 +5529,11 @@
     </row>
     <row r="80" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B80" s="13"/>
-      <c r="C80" s="24" t="str">
+      <c r="C80" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6300,11 +5560,11 @@
     </row>
     <row r="81" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="str">
-        <f t="shared" ref="A81:A105" si="7">IF(OR(B81&lt;&gt;"",J81&lt;&gt;""),CONCATENATE(LEFT(A80,3),IF(MID(A80,4,2)+1&lt;10,CONCATENATE("0",MID(A80,4,2)+1),MID(A80,4,2)+1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B81" s="13"/>
-      <c r="C81" s="24" t="str">
+      <c r="C81" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6335,7 +5595,7 @@
         <v/>
       </c>
       <c r="B82" s="13"/>
-      <c r="C82" s="24" t="str">
+      <c r="C82" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6366,7 +5626,7 @@
         <v/>
       </c>
       <c r="B83" s="13"/>
-      <c r="C83" s="24" t="str">
+      <c r="C83" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6397,7 +5657,7 @@
         <v/>
       </c>
       <c r="B84" s="13"/>
-      <c r="C84" s="24" t="str">
+      <c r="C84" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6428,7 +5688,7 @@
         <v/>
       </c>
       <c r="B85" s="13"/>
-      <c r="C85" s="24" t="str">
+      <c r="C85" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6459,7 +5719,7 @@
         <v/>
       </c>
       <c r="B86" s="13"/>
-      <c r="C86" s="24" t="str">
+      <c r="C86" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6490,7 +5750,7 @@
         <v/>
       </c>
       <c r="B87" s="13"/>
-      <c r="C87" s="24" t="str">
+      <c r="C87" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6521,7 +5781,7 @@
         <v/>
       </c>
       <c r="B88" s="13"/>
-      <c r="C88" s="24" t="str">
+      <c r="C88" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6552,7 +5812,7 @@
         <v/>
       </c>
       <c r="B89" s="13"/>
-      <c r="C89" s="24" t="str">
+      <c r="C89" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6583,7 +5843,7 @@
         <v/>
       </c>
       <c r="B90" s="13"/>
-      <c r="C90" s="24" t="str">
+      <c r="C90" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6614,7 +5874,7 @@
         <v/>
       </c>
       <c r="B91" s="13"/>
-      <c r="C91" s="24" t="str">
+      <c r="C91" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6645,7 +5905,7 @@
         <v/>
       </c>
       <c r="B92" s="13"/>
-      <c r="C92" s="24" t="str">
+      <c r="C92" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6670,411 +5930,8 @@
       <c r="J92" s="14"/>
       <c r="K92" s="15"/>
     </row>
-    <row r="93" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="B93" s="13"/>
-      <c r="C93" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G93" s="14" t="str">
-        <f>IF(F93&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H93" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I93" s="14" t="str">
-        <f>IF(OR(B93&lt;&gt;"",J93&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J93" s="14"/>
-      <c r="K93" s="15"/>
-    </row>
-    <row r="94" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="B94" s="13"/>
-      <c r="C94" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G94" s="14" t="str">
-        <f>IF(F94&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H94" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I94" s="14" t="str">
-        <f>IF(OR(B94&lt;&gt;"",J94&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J94" s="14"/>
-      <c r="K94" s="15"/>
-    </row>
-    <row r="95" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="B95" s="13"/>
-      <c r="C95" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G95" s="14" t="str">
-        <f>IF(F95&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H95" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I95" s="14" t="str">
-        <f>IF(OR(B95&lt;&gt;"",J95&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J95" s="14"/>
-      <c r="K95" s="15"/>
-    </row>
-    <row r="96" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="B96" s="13"/>
-      <c r="C96" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G96" s="14" t="str">
-        <f>IF(F96&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H96" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I96" s="14" t="str">
-        <f>IF(OR(B96&lt;&gt;"",J96&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J96" s="14"/>
-      <c r="K96" s="15"/>
-    </row>
-    <row r="97" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="B97" s="13"/>
-      <c r="C97" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G97" s="14" t="str">
-        <f>IF(F97&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H97" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I97" s="14" t="str">
-        <f>IF(OR(B97&lt;&gt;"",J97&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J97" s="14"/>
-      <c r="K97" s="15"/>
-    </row>
-    <row r="98" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="B98" s="13"/>
-      <c r="C98" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G98" s="14" t="str">
-        <f>IF(F98&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H98" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I98" s="14" t="str">
-        <f>IF(OR(B98&lt;&gt;"",J98&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J98" s="14"/>
-      <c r="K98" s="15"/>
-    </row>
-    <row r="99" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="B99" s="13"/>
-      <c r="C99" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G99" s="14" t="str">
-        <f>IF(F99&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H99" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I99" s="14" t="str">
-        <f>IF(OR(B99&lt;&gt;"",J99&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J99" s="14"/>
-      <c r="K99" s="15"/>
-    </row>
-    <row r="100" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="B100" s="13"/>
-      <c r="C100" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G100" s="14" t="str">
-        <f>IF(F100&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H100" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I100" s="14" t="str">
-        <f>IF(OR(B100&lt;&gt;"",J100&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J100" s="14"/>
-      <c r="K100" s="15"/>
-    </row>
-    <row r="101" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="B101" s="13"/>
-      <c r="C101" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G101" s="14" t="str">
-        <f>IF(F101&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H101" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I101" s="14" t="str">
-        <f>IF(OR(B101&lt;&gt;"",J101&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J101" s="14"/>
-      <c r="K101" s="15"/>
-    </row>
-    <row r="102" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="B102" s="13"/>
-      <c r="C102" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G102" s="14" t="str">
-        <f>IF(F102&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H102" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I102" s="14" t="str">
-        <f>IF(OR(B102&lt;&gt;"",J102&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J102" s="14"/>
-      <c r="K102" s="15"/>
-    </row>
-    <row r="103" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="B103" s="13"/>
-      <c r="C103" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G103" s="14" t="str">
-        <f>IF(F103&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H103" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I103" s="14" t="str">
-        <f>IF(OR(B103&lt;&gt;"",J103&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J103" s="14"/>
-      <c r="K103" s="15"/>
-    </row>
-    <row r="104" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="B104" s="13"/>
-      <c r="C104" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G104" s="14" t="str">
-        <f>IF(F104&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H104" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I104" s="14" t="str">
-        <f>IF(OR(B104&lt;&gt;"",J104&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J104" s="14"/>
-      <c r="K104" s="15"/>
-    </row>
-    <row r="105" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="B105" s="13"/>
-      <c r="C105" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G105" s="14" t="str">
-        <f>IF(F105&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H105" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I105" s="14" t="str">
-        <f>IF(OR(B105&lt;&gt;"",J105&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J105" s="14"/>
-      <c r="K105" s="15"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A9:P105"/>
+  <autoFilter ref="A9:P92"/>
   <mergeCells count="7">
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
@@ -7114,36 +5971,33 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
       <formula1>"3,4,5,6,7,8,9,10,11"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E105">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E92">
       <formula1>"Vertical,Horizontal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D105">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D92">
       <formula1>"Ilustración,Fotografía"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="J11" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="3134" r:id="rId5">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId6">
+        <oleObject progId="PBrush" shapeId="3134" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>9</xdr:col>
                 <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>25</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
                 <xdr:colOff>4438650</xdr:colOff>
-                <xdr:row>25</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>3095625</xdr:rowOff>
               </to>
             </anchor>
@@ -7151,7 +6005,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="3134" r:id="rId5"/>
+        <oleObject progId="PBrush" shapeId="3134" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -7169,539 +6023,539 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.25" style="27" customWidth="1"/>
-    <col min="2" max="2" width="11" style="27"/>
-    <col min="3" max="3" width="13.875" style="27" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="27" customWidth="1"/>
-    <col min="5" max="7" width="11" style="27"/>
-    <col min="8" max="11" width="11" style="27" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="27"/>
+    <col min="1" max="1" width="72.25" style="25" customWidth="1"/>
+    <col min="2" max="2" width="11" style="25"/>
+    <col min="3" max="3" width="13.875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="25" customWidth="1"/>
+    <col min="5" max="7" width="11" style="25"/>
+    <col min="8" max="11" width="11" style="25" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="91"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="86"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="92" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="37"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="98" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="99"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="37"/>
-      <c r="H3" s="27" t="s">
+      <c r="D3" s="94"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="35"/>
+      <c r="H3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="25" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="31" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="H4" s="27" t="s">
+      <c r="F4" s="35"/>
+      <c r="H4" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="25">
         <v>1</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="33" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="101" t="str">
+      <c r="D5" s="96" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="102"/>
-      <c r="F5" s="37"/>
-      <c r="H5" s="27" t="s">
+      <c r="E5" s="97"/>
+      <c r="F5" s="35"/>
+      <c r="H5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="25">
         <v>2</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37"/>
-      <c r="H6" s="27" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
+      <c r="H6" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="25">
         <v>3</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="67" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="87" t="str">
+      <c r="D7" s="82" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="87"/>
-      <c r="F7" s="88"/>
-      <c r="H7" s="27" t="s">
+      <c r="E7" s="82"/>
+      <c r="F7" s="83"/>
+      <c r="H7" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="25">
         <v>4</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="25">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37"/>
-      <c r="I8" s="27" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="35"/>
+      <c r="I8" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="25">
         <v>5</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37"/>
-      <c r="I9" s="27" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="35"/>
+      <c r="I9" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="25">
         <v>6</v>
       </c>
-      <c r="K9" s="27">
+      <c r="K9" s="25">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="41"/>
-      <c r="I10" s="27" t="s">
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="39"/>
+      <c r="I10" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="25">
         <v>7</v>
       </c>
-      <c r="K10" s="27">
+      <c r="K10" s="25">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="25">
         <v>8</v>
       </c>
-      <c r="K11" s="27">
+      <c r="K11" s="25">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="25">
         <v>9</v>
       </c>
-      <c r="K12" s="27">
+      <c r="K12" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="91"/>
-      <c r="I13" s="27" t="s">
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="86"/>
+      <c r="I13" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="25">
         <v>10</v>
       </c>
-      <c r="K13" s="27">
+      <c r="K13" s="25">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37"/>
-      <c r="I14" s="27" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
+      <c r="I14" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="25">
         <v>11</v>
       </c>
-      <c r="K14" s="27">
+      <c r="K14" s="25">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="92" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="94"/>
-      <c r="J15" s="27">
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="89"/>
+      <c r="J15" s="25">
         <v>12</v>
       </c>
-      <c r="K15" s="27">
+      <c r="K15" s="25">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="31" t="s">
+      <c r="B16" s="34"/>
+      <c r="C16" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="25">
         <v>13</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K16" s="25">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="33" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="95" t="str">
+      <c r="D17" s="90" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="96"/>
-      <c r="F17" s="97"/>
-      <c r="J17" s="27">
+      <c r="E17" s="91"/>
+      <c r="F17" s="92"/>
+      <c r="J17" s="25">
         <v>14</v>
       </c>
-      <c r="K17" s="27">
+      <c r="K17" s="25">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="67" t="s">
+      <c r="B18" s="34"/>
+      <c r="C18" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="87" t="str">
+      <c r="D18" s="82" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="87"/>
-      <c r="F18" s="88"/>
-      <c r="J18" s="27">
+      <c r="E18" s="82"/>
+      <c r="F18" s="83"/>
+      <c r="J18" s="25">
         <v>15</v>
       </c>
-      <c r="K18" s="27">
+      <c r="K18" s="25">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37"/>
-      <c r="H19" s="27">
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
+      <c r="H19" s="25">
         <v>3</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J19" s="25">
         <v>16</v>
       </c>
-      <c r="K19" s="27">
+      <c r="K19" s="25">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="41"/>
-      <c r="H20" s="27">
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
+      <c r="H20" s="25">
         <v>4</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="25">
         <v>5</v>
       </c>
-      <c r="J20" s="27">
+      <c r="J20" s="25">
         <v>4</v>
       </c>
-      <c r="K20" s="27">
+      <c r="K20" s="25">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H21" s="27" t="str">
+      <c r="H21" s="25" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
       </c>
-      <c r="I21" s="27" t="str">
+      <c r="I21" s="25" t="str">
         <f>CONCATENATE(IF((I20+2)&lt;10,"0",""),I20+2)</f>
         <v>07</v>
       </c>
-      <c r="J21" s="27" t="str">
+      <c r="J21" s="25" t="str">
         <f>CONCATENATE(IF(J20&lt;10,"0",""),J20)</f>
         <v>04</v>
       </c>
-      <c r="K21" s="27">
+      <c r="K21" s="25">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K22" s="27">
+      <c r="K22" s="25">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K23" s="27">
+      <c r="K23" s="25">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K24" s="27">
+      <c r="K24" s="25">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K25" s="27">
+      <c r="K25" s="25">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K26" s="27">
+      <c r="K26" s="25">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K27" s="27">
+      <c r="K27" s="25">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K28" s="27">
+      <c r="K28" s="25">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K29" s="27">
+      <c r="K29" s="25">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K30" s="27">
+      <c r="K30" s="25">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K31" s="27">
+      <c r="K31" s="25">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K32" s="27">
+      <c r="K32" s="25">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K33" s="27">
+      <c r="K33" s="25">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K34" s="27">
+      <c r="K34" s="25">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K35" s="27">
+      <c r="K35" s="25">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K36" s="27">
+      <c r="K36" s="25">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K37" s="27">
+      <c r="K37" s="25">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K38" s="27">
+      <c r="K38" s="25">
         <v>35</v>
       </c>
     </row>
     <row r="39" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K39" s="27">
+      <c r="K39" s="25">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K40" s="27">
+      <c r="K40" s="25">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K41" s="27">
+      <c r="K41" s="25">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K42" s="27">
+      <c r="K42" s="25">
         <v>39</v>
       </c>
     </row>
     <row r="43" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K43" s="27">
+      <c r="K43" s="25">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K44" s="27">
+      <c r="K44" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K45" s="27" t="str">
+      <c r="K45" s="25" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
       </c>
@@ -7896,562 +6750,562 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="27" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="27" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="27" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="27"/>
-    <col min="5" max="5" width="11.75" style="27" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="27" customWidth="1"/>
-    <col min="7" max="7" width="11" style="27" customWidth="1"/>
-    <col min="8" max="8" width="24.5" style="27" customWidth="1"/>
-    <col min="9" max="9" width="22.25" style="27" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="27" customWidth="1"/>
-    <col min="11" max="11" width="44.5" style="27" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="27"/>
+    <col min="1" max="1" width="21" style="25" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="25" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="25" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="25"/>
+    <col min="5" max="5" width="11.75" style="25" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="25" customWidth="1"/>
+    <col min="7" max="7" width="11" style="25" customWidth="1"/>
+    <col min="8" max="8" width="24.5" style="25" customWidth="1"/>
+    <col min="9" max="9" width="22.25" style="25" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="25" customWidth="1"/>
+    <col min="11" max="11" width="44.5" style="25" customWidth="1"/>
+    <col min="12" max="16384" width="10.875" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="104" t="s">
+      <c r="H1" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="103"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="46" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="44" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+    <row r="3" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-    </row>
-    <row r="4" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+    </row>
+    <row r="4" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49" t="s">
+      <c r="G4" s="47"/>
+      <c r="H4" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="49"/>
-    </row>
-    <row r="5" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+      <c r="J4" s="47"/>
+    </row>
+    <row r="5" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="49" t="s">
+      <c r="G5" s="49"/>
+      <c r="H5" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="J5" s="51"/>
-    </row>
-    <row r="6" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="J5" s="49"/>
+    </row>
+    <row r="6" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="47" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="48" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+    <row r="7" spans="1:11" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49" t="s">
+      <c r="G7" s="47"/>
+      <c r="H7" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="I7" s="49" t="s">
+      <c r="I7" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="J7" s="49"/>
-    </row>
-    <row r="8" spans="1:11" s="48" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+      <c r="J7" s="47"/>
+    </row>
+    <row r="8" spans="1:11" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49" t="s">
+      <c r="G8" s="47"/>
+      <c r="H8" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="I8" s="49" t="s">
+      <c r="I8" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="J8" s="49"/>
-    </row>
-    <row r="9" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="J8" s="47"/>
+    </row>
+    <row r="9" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49" t="s">
+      <c r="G9" s="47"/>
+      <c r="H9" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="I9" s="49" t="s">
+      <c r="I9" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="J9" s="49"/>
-    </row>
-    <row r="10" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+      <c r="J9" s="47"/>
+    </row>
+    <row r="10" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49" t="s">
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="I10" s="49" t="s">
+      <c r="I10" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="J10" s="49"/>
-    </row>
-    <row r="11" spans="1:11" s="48" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+      <c r="J10" s="47"/>
+    </row>
+    <row r="11" spans="1:11" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49" t="s">
+      <c r="G11" s="47"/>
+      <c r="H11" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="I11" s="49" t="s">
+      <c r="I11" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="J11" s="49"/>
-    </row>
-    <row r="12" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+      <c r="J11" s="47"/>
+    </row>
+    <row r="12" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="49" t="s">
+      <c r="F12" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49" t="s">
+      <c r="G12" s="47"/>
+      <c r="H12" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="I12" s="49" t="s">
+      <c r="I12" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="J12" s="49"/>
+      <c r="J12" s="47"/>
     </row>
     <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="54" t="s">
+      <c r="E13" s="51"/>
+      <c r="F13" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49" t="s">
+      <c r="G13" s="50"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="J13" s="52"/>
-      <c r="K13" s="27" t="s">
+      <c r="J13" s="50"/>
+      <c r="K13" s="25" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="54" t="s">
+      <c r="E14" s="51"/>
+      <c r="F14" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="G14" s="52"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49" t="s">
+      <c r="G14" s="50"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="52"/>
+      <c r="J14" s="50"/>
     </row>
     <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="49" t="s">
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="27" t="s">
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="25" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="50" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="53" t="s">
+      <c r="E16" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="G16" s="53"/>
-      <c r="H16" s="54" t="s">
+      <c r="G16" s="51"/>
+      <c r="H16" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="I16" s="54" t="s">
+      <c r="I16" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="J16" s="53"/>
-      <c r="K16" s="55" t="s">
+      <c r="J16" s="51"/>
+      <c r="K16" s="53" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49" t="s">
+      <c r="B17" s="47"/>
+      <c r="C17" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="49" t="s">
+      <c r="E17" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="49" t="s">
+      <c r="F17" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="49"/>
-      <c r="H17" s="56" t="s">
+      <c r="G17" s="47"/>
+      <c r="H17" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="I17" s="56" t="s">
+      <c r="I17" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="J17" s="49"/>
-      <c r="K17" s="57" t="s">
+      <c r="J17" s="47"/>
+      <c r="K17" s="55" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="56" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="68" t="s">
+      <c r="B23" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
     </row>
     <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
     </row>
     <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/fuentes/contenidos/grado10/guion09/SolicitudGrafica_CN_10_09_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion09/SolicitudGrafica_CN_10_09_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado10\guion09\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Desktop\Edición Planeta\CN_10_09_CO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Solicitud gráfica'!$A$9:$P$92</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -556,76 +556,128 @@
     <t xml:space="preserve">Código Shutterstock 139537097. Ver obsevaciones y descripciones </t>
   </si>
   <si>
-    <t xml:space="preserve">Se solicita por favor cambiar de inglés a español los textos que aparecen en la imagen: -Solid por Sólido
+    <t>4º ESO/Fisica-quimica/ Las reacciones químicas / ¿Qué es reacción química?</t>
+  </si>
+  <si>
+    <t>Código Shutterstock 255801601</t>
+  </si>
+  <si>
+    <t>Código Shutterstock 94579318</t>
+  </si>
+  <si>
+    <t>Código Shutterstock 192603359</t>
+  </si>
+  <si>
+    <t>http://hispanicasaber.planetasaber.com/encyclopedia/default.asp?idpack=11&amp;idpil=001EQH01&amp;ruta=Buscador</t>
+  </si>
+  <si>
+    <t>Código Shutterstock 131105219</t>
+  </si>
+  <si>
+    <t>Código Shutterstock 252763060</t>
+  </si>
+  <si>
+    <t>Código Shutterstock 281121041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se solicita por favor realizar ilustración similar a la imagen guía. Por favor implementar imágenes que correspondan a termómetros reales </t>
+  </si>
+  <si>
+    <t>IMG02</t>
+  </si>
+  <si>
+    <t>IMG03</t>
+  </si>
+  <si>
+    <t>IMG04</t>
+  </si>
+  <si>
+    <t>IMG05</t>
+  </si>
+  <si>
+    <t>IMG06</t>
+  </si>
+  <si>
+    <t>IMG07</t>
+  </si>
+  <si>
+    <t>IMG08</t>
+  </si>
+  <si>
+    <t>IMG09</t>
+  </si>
+  <si>
+    <r>
+      <t>Se solicita por favor cambiar de inglés a español los textos que aparecen en la imagen: -Solid por Sólido
 -liquid por Líquido
 - Gas por gaseoso
 -Deposition por Sublimación
 -Sublimation por Sublimación regresiva 
 -Freezing por Solidificación 
 -Melting por Fusión
-_Evaporation por Vaporización
+_Evaporation por</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Evaporación</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
 -Condensation por Condensación Eliminar lo que se encuentra en el cuadro rojo 
 </t>
-  </si>
-  <si>
-    <t>Se solicita realizar ilustración de esquema igual a la imagen guía. Los colores se dejan según criterio de la diseñadora de acuerdo a maqueta.</t>
-  </si>
-  <si>
-    <t>Se solicita realizar ilustración de gráfico igual a la imagen guía. Los colores se dejan según criterio de la diseñadora de acuerdo a maqueta.</t>
-  </si>
-  <si>
-    <t>4º ESO/Fisica-quimica/ Las reacciones químicas / ¿Qué es reacción química?</t>
-  </si>
-  <si>
-    <t>Código Shutterstock 255801601</t>
-  </si>
-  <si>
-    <t>Código Shutterstock 94579318</t>
-  </si>
-  <si>
-    <t>Código Shutterstock 192603359</t>
-  </si>
-  <si>
-    <t>http://hispanicasaber.planetasaber.com/encyclopedia/default.asp?idpack=11&amp;idpil=001EQH01&amp;ruta=Buscador</t>
-  </si>
-  <si>
-    <t>Código Shutterstock 131105219</t>
-  </si>
-  <si>
-    <t>Código Shutterstock 252763060</t>
-  </si>
-  <si>
-    <t>Código Shutterstock 281121041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se solicita por favor realizar ilustración similar a la imagen guía. Por favor implementar imágenes que correspondan a termómetros reales </t>
-  </si>
-  <si>
-    <t>Se solicita realizar ilustración de esquema igual a la imagen guía. Los colores y formas a utilizar se dejan según criterio de la diseñadora de acuerdo a maqueta.</t>
-  </si>
-  <si>
-    <t>IMG02</t>
-  </si>
-  <si>
-    <t>IMG03</t>
-  </si>
-  <si>
-    <t>IMG04</t>
-  </si>
-  <si>
-    <t>IMG05</t>
-  </si>
-  <si>
-    <t>IMG06</t>
-  </si>
-  <si>
-    <t>IMG07</t>
-  </si>
-  <si>
-    <t>IMG08</t>
-  </si>
-  <si>
-    <t>IMG09</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se solicita realizar ilustración de gráfico igual a la imagen guía. Los colores se dejan según criterio de la diseñadora de acuerdo a maqueta. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>Incluir texto Agua líquida</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se solicita realizar ilustración de esquema igual a la imagen guía. Los colores y formas a utilizar se dejan según criterio de la diseñadora de acuerdo a maqueta. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>Eliminar texto vertical "Cromatografía" y Líquido gas. Adicionar Cromatografía y Decantación</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se solicita realizar ilustración de esquema igual a la imagen guía. Los colores se dejan según criterio de la diseñadora de acuerdo a maqueta. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cambiar "Vaporización" por "Evaporación"</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -635,7 +687,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -769,6 +821,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1761,100 +1819,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>130968</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>5072061</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>3333750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Imagen 55"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect l="25454" t="28901" r="40184" b="27358"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14775656" y="33182719"/>
-          <a:ext cx="4941093" cy="3143250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>4438650</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>3095625</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3134" name="Object 62" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3134"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>392906</xdr:rowOff>
@@ -1871,7 +1835,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1918,7 +1882,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1965,7 +1929,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2012,7 +1976,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2028,53 +1992,6 @@
         <a:xfrm>
           <a:off x="14942344" y="48220313"/>
           <a:ext cx="3448050" cy="2604770"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>4819650</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>4374333</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="Imagen 62" descr="C:\Users\Viviana\Desktop\DSC04077.JPG"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14872607" y="51230892"/>
-          <a:ext cx="4629150" cy="4319905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2106,7 +2023,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:srcRect l="27617" t="16049" r="27459" b="33187"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -2149,7 +2066,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2196,7 +2113,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2243,7 +2160,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2290,7 +2207,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2337,7 +2254,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2361,6 +2278,139 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4454525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2971800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagen 16"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:srcRect l="38188" t="34112" r="33978" b="29664"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15354300" y="10439400"/>
+          <a:ext cx="3787775" cy="2762250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>214311</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4633912</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3500436</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Imagen 17"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15049500" y="25015030"/>
+          <a:ext cx="4229100" cy="3286125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>539750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3810000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>3270250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagen 19"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:srcRect l="37678" t="28074" r="27698" b="25136"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15240000" y="7143750"/>
+          <a:ext cx="3238500" cy="2730500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3079,13 +3129,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3315,7 +3365,7 @@
     </row>
     <row r="11" spans="1:16" s="12" customFormat="1" ht="227.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>160</v>
@@ -3348,12 +3398,12 @@
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="15" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1" ht="285.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>156</v>
@@ -3386,12 +3436,12 @@
       </c>
       <c r="J12" s="67"/>
       <c r="K12" s="68" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="12" customFormat="1" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>156</v>
@@ -3424,15 +3474,15 @@
       </c>
       <c r="J13"/>
       <c r="K13" s="68" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="12" customFormat="1" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C14" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3465,10 +3515,10 @@
     </row>
     <row r="15" spans="1:16" s="12" customFormat="1" ht="192.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C15" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3501,10 +3551,10 @@
     </row>
     <row r="16" spans="1:16" s="12" customFormat="1" ht="249.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C16" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3537,10 +3587,10 @@
     </row>
     <row r="17" spans="1:11" s="12" customFormat="1" ht="239.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C17" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3573,7 +3623,7 @@
     </row>
     <row r="18" spans="1:11" s="12" customFormat="1" ht="348.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>156</v>
@@ -3606,7 +3656,7 @@
       </c>
       <c r="J18" s="19"/>
       <c r="K18" s="68" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="12" customFormat="1" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3614,7 +3664,7 @@
         <v>149</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C19" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3650,7 +3700,7 @@
         <v>150</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C20" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3686,7 +3736,7 @@
         <v>151</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C21" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3722,7 +3772,7 @@
         <v>152</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C22" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3788,7 +3838,7 @@
       </c>
       <c r="J23"/>
       <c r="K23" s="68" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5981,34 +6031,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="3134" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>4438650</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>3095625</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="3134" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
 </worksheet>
 </file>
 

--- a/fuentes/contenidos/grado10/guion09/SolicitudGrafica_CN_10_09_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion09/SolicitudGrafica_CN_10_09_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Desktop\Edición Planeta\CN_10_09_CO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CienciasNaturales\fuentes\contenidos\grado10\guion09\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -565,9 +565,6 @@
     <t>Código Shutterstock 94579318</t>
   </si>
   <si>
-    <t>Código Shutterstock 192603359</t>
-  </si>
-  <si>
     <t>http://hispanicasaber.planetasaber.com/encyclopedia/default.asp?idpack=11&amp;idpil=001EQH01&amp;ruta=Buscador</t>
   </si>
   <si>
@@ -678,6 +675,9 @@
       </rPr>
       <t>Cambiar "Vaporización" por "Evaporación"</t>
     </r>
+  </si>
+  <si>
+    <t>Código Shutterstock 138017690</t>
   </si>
 </sst>
 </file>
@@ -3133,9 +3133,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="11" spans="1:16" s="12" customFormat="1" ht="227.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>160</v>
@@ -3398,12 +3398,12 @@
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1" ht="285.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>156</v>
@@ -3436,12 +3436,12 @@
       </c>
       <c r="J12" s="67"/>
       <c r="K12" s="68" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="12" customFormat="1" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>156</v>
@@ -3474,12 +3474,12 @@
       </c>
       <c r="J13"/>
       <c r="K13" s="68" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="12" customFormat="1" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>161</v>
@@ -3515,7 +3515,7 @@
     </row>
     <row r="15" spans="1:16" s="12" customFormat="1" ht="192.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>162</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="16" spans="1:16" s="12" customFormat="1" ht="249.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>163</v>
@@ -3587,10 +3587,10 @@
     </row>
     <row r="17" spans="1:11" s="12" customFormat="1" ht="239.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="C17" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="18" spans="1:11" s="12" customFormat="1" ht="348.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>156</v>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="J18" s="19"/>
       <c r="K18" s="68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="12" customFormat="1" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3664,7 +3664,7 @@
         <v>149</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C19" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3700,7 +3700,7 @@
         <v>150</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C20" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3736,7 +3736,7 @@
         <v>151</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C21" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3772,7 +3772,7 @@
         <v>152</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C22" s="23" t="str">
         <f t="shared" si="0"/>
@@ -3838,7 +3838,7 @@
       </c>
       <c r="J23"/>
       <c r="K23" s="68" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
